--- a/biology/Zoologie/Cithaeron_praedonius/Cithaeron_praedonius.xlsx
+++ b/biology/Zoologie/Cithaeron_praedonius/Cithaeron_praedonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cithaeron praedonius est une espèce d'araignées aranéomorphes de la famille des Cithaeronidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cithaeron praedonius est une espèce d'araignées aranéomorphes de la famille des Cithaeronidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Grèce, en Turquie, à Chypre, en Libye, en Égypte, en Érythrée, en Israël en Arabie saoudite, au Yémen, en Iran, au Turkménistan, en Inde, en Malaisie et à Singapour[1],[2].
-Elle a été introduite en Australie, aux États-Unis, au Mexique, au Honduras, à Cuba et au Brésil[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Grèce, en Turquie, à Chypre, en Libye, en Égypte, en Érythrée, en Israël en Arabie saoudite, au Yémen, en Iran, au Turkménistan, en Inde, en Malaisie et à Singapour,.
+Elle a été introduite en Australie, aux États-Unis, au Mexique, au Honduras, à Cuba et au Brésil,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Platnick en 1991 mesure 3,49 mm et la femelle 5,38 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Platnick en 1991 mesure 3,49 mm et la femelle 5,38 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par O. Pickard-Cambridge en 1872.
-Tephlea agelenoides[4] a été placée en synonymie par Simon en 1893[5].
-Tephlea limbata[6], Tephlea semilimbata[7] et Cythaeron pallidus[8] ont été placées en synonymie par Platnick en 1991[2].
+Tephlea agelenoides a été placée en synonymie par Simon en 1893.
+Tephlea limbata, Tephlea semilimbata et Cythaeron pallidus ont été placées en synonymie par Platnick en 1991.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1872 : « General list of the spiders of Palestine and Syria, with descriptions of numerous new species, and characters of two new genera. » Proceedings of the Zoological Society of London, vol. 1872, p. 212-354 (texte intégral).</t>
         </is>
